--- a/Silvicultura/18.2.xlsx
+++ b/Silvicultura/18.2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo Arancibia\Dropbox\Diseño DATA's (1)\Tablas Madre\Silvicultura\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo Arancibia\DATA INTELLIGENCE Dropbox\Diseño DATA's\Tablas Madre\Silvicultura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D44EC805-4C14-4CF4-8F9D-FB3947CDBA68}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{481D5A19-736A-4AD8-89B6-EE6BF3C286F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{304F5C37-1D98-4FE3-B97A-F520E9FED410}"/>
   </bookViews>
@@ -318,7 +318,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -395,15 +395,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -412,6 +412,54 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="42">
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <border outline="0">
+        <left style="medium">
+          <color rgb="FFDDDDDD"/>
+        </left>
+        <right/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -425,21 +473,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="168" formatCode="0.0"/>
+      <numFmt numFmtId="164" formatCode="0.0"/>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border outline="0">
         <left style="medium">
           <color rgb="FFDDDDDD"/>
         </left>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.0"/>
-      <border outline="0">
-        <left style="medium">
-          <color rgb="FFDDDDDD"/>
-        </left>
-        <right/>
       </border>
     </dxf>
     <dxf>
@@ -455,7 +494,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="168" formatCode="0.0"/>
+      <numFmt numFmtId="164" formatCode="0.0"/>
       <border outline="0">
         <left style="medium">
           <color rgb="FFDDDDDD"/>
@@ -478,7 +517,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="168" formatCode="0.0"/>
+      <numFmt numFmtId="164" formatCode="0.0"/>
       <border outline="0">
         <left style="medium">
           <color rgb="FFDDDDDD"/>
@@ -501,7 +540,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="168" formatCode="0.0"/>
+      <numFmt numFmtId="164" formatCode="0.0"/>
       <border outline="0">
         <left style="medium">
           <color rgb="FFDDDDDD"/>
@@ -524,7 +563,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="168" formatCode="0.0"/>
+      <numFmt numFmtId="164" formatCode="0.0"/>
       <border outline="0">
         <left style="medium">
           <color rgb="FFDDDDDD"/>
@@ -547,7 +586,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="168" formatCode="0.0"/>
+      <numFmt numFmtId="164" formatCode="0.0"/>
       <border outline="0">
         <left style="medium">
           <color rgb="FFDDDDDD"/>
@@ -570,7 +609,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="168" formatCode="0.0"/>
+      <numFmt numFmtId="164" formatCode="0.0"/>
       <border outline="0">
         <left style="medium">
           <color rgb="FFDDDDDD"/>
@@ -593,7 +632,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="168" formatCode="0.0"/>
+      <numFmt numFmtId="164" formatCode="0.0"/>
       <border outline="0">
         <left style="medium">
           <color rgb="FFDDDDDD"/>
@@ -616,7 +655,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="168" formatCode="0.0"/>
+      <numFmt numFmtId="164" formatCode="0.0"/>
       <border outline="0">
         <left style="medium">
           <color rgb="FFDDDDDD"/>
@@ -639,7 +678,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="168" formatCode="0.0"/>
+      <numFmt numFmtId="164" formatCode="0.0"/>
       <border outline="0">
         <left style="medium">
           <color rgb="FFDDDDDD"/>
@@ -662,7 +701,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="168" formatCode="0.0"/>
+      <numFmt numFmtId="164" formatCode="0.0"/>
       <border outline="0">
         <left style="medium">
           <color rgb="FFDDDDDD"/>
@@ -685,7 +724,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="168" formatCode="0.0"/>
+      <numFmt numFmtId="164" formatCode="0.0"/>
       <border outline="0">
         <left style="medium">
           <color rgb="FFDDDDDD"/>
@@ -708,7 +747,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="168" formatCode="0.0"/>
+      <numFmt numFmtId="164" formatCode="0.0"/>
       <border outline="0">
         <left style="medium">
           <color rgb="FFDDDDDD"/>
@@ -731,7 +770,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="168" formatCode="0.0"/>
+      <numFmt numFmtId="164" formatCode="0.0"/>
       <border outline="0">
         <left style="medium">
           <color rgb="FFDDDDDD"/>
@@ -754,7 +793,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="168" formatCode="0.0"/>
+      <numFmt numFmtId="164" formatCode="0.0"/>
       <border outline="0">
         <left style="medium">
           <color rgb="FFDDDDDD"/>
@@ -777,7 +816,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="168" formatCode="0.0"/>
+      <numFmt numFmtId="164" formatCode="0.0"/>
       <border outline="0">
         <left style="medium">
           <color rgb="FFDDDDDD"/>
@@ -800,7 +839,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="168" formatCode="0.0"/>
+      <numFmt numFmtId="164" formatCode="0.0"/>
       <border outline="0">
         <left style="medium">
           <color rgb="FFDDDDDD"/>
@@ -823,7 +862,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="168" formatCode="0.0"/>
+      <numFmt numFmtId="164" formatCode="0.0"/>
       <border outline="0">
         <left style="medium">
           <color rgb="FFDDDDDD"/>
@@ -846,7 +885,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="168" formatCode="0.0"/>
+      <numFmt numFmtId="164" formatCode="0.0"/>
       <border outline="0">
         <left style="medium">
           <color rgb="FFDDDDDD"/>
@@ -869,7 +908,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="168" formatCode="0.0"/>
+      <numFmt numFmtId="164" formatCode="0.0"/>
       <border outline="0">
         <left style="medium">
           <color rgb="FFDDDDDD"/>
@@ -892,7 +931,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="168" formatCode="0.0"/>
+      <numFmt numFmtId="164" formatCode="0.0"/>
       <border outline="0">
         <left style="medium">
           <color rgb="FFDDDDDD"/>
@@ -915,7 +954,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="168" formatCode="0.0"/>
+      <numFmt numFmtId="164" formatCode="0.0"/>
       <border outline="0">
         <left style="medium">
           <color rgb="FFDDDDDD"/>
@@ -938,7 +977,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="168" formatCode="0.0"/>
+      <numFmt numFmtId="164" formatCode="0.0"/>
       <border outline="0">
         <left style="medium">
           <color rgb="FFDDDDDD"/>
@@ -961,7 +1000,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="168" formatCode="0.0"/>
+      <numFmt numFmtId="164" formatCode="0.0"/>
       <border outline="0">
         <left style="medium">
           <color rgb="FFDDDDDD"/>
@@ -984,7 +1023,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="168" formatCode="0.0"/>
+      <numFmt numFmtId="164" formatCode="0.0"/>
       <border outline="0">
         <left style="medium">
           <color rgb="FFDDDDDD"/>
@@ -1007,7 +1046,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="168" formatCode="0.0"/>
+      <numFmt numFmtId="164" formatCode="0.0"/>
       <border outline="0">
         <left style="medium">
           <color rgb="FFDDDDDD"/>
@@ -1030,7 +1069,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="168" formatCode="0.0"/>
+      <numFmt numFmtId="164" formatCode="0.0"/>
       <border outline="0">
         <right style="medium">
           <color rgb="FFFFFFFF"/>
@@ -1043,45 +1082,6 @@
           <color rgb="FFFFFFFF"/>
         </right>
       </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1102,47 +1102,47 @@
   <tableColumns count="43">
     <tableColumn id="1" xr3:uid="{263C7489-3DA9-40CA-95D6-658D6DE04089}" name="Id_auxiliar"/>
     <tableColumn id="2" xr3:uid="{28BEA813-EBF7-40A0-BC50-5ED6479FABB9}" name="Código_Región"/>
-    <tableColumn id="3" xr3:uid="{C8A9970E-C06D-4717-9FB5-C8093BB33DC0}" name="Región" dataDxfId="28"/>
-    <tableColumn id="16" xr3:uid="{316B0B0C-55EB-43B7-A8C2-807427DE9BCC}" name="1980" dataDxfId="27"/>
-    <tableColumn id="17" xr3:uid="{2A0C395E-5BF3-4E7E-990F-CE08B67BA2F0}" name="1981" dataDxfId="26"/>
-    <tableColumn id="18" xr3:uid="{3BD4C3EB-CD39-4338-9AC0-02A71E406D10}" name="1982" dataDxfId="25"/>
-    <tableColumn id="19" xr3:uid="{84AFBD40-6DEB-41A9-97AC-78005B28B8C9}" name="1983" dataDxfId="24"/>
-    <tableColumn id="20" xr3:uid="{A81310DA-5579-41DC-98A2-A047C100FD22}" name="1984" dataDxfId="23"/>
-    <tableColumn id="21" xr3:uid="{C90369CE-AABA-4F59-8CDB-8CC9A1D740EF}" name="1985" dataDxfId="22"/>
-    <tableColumn id="22" xr3:uid="{3E1971AE-4F59-4AA8-B89A-A55924A07F20}" name="1986" dataDxfId="21"/>
-    <tableColumn id="23" xr3:uid="{24ECFD52-84D3-4960-8F72-D9CEA6D60483}" name="1987" dataDxfId="20"/>
-    <tableColumn id="24" xr3:uid="{1C617C35-6BEA-4684-866C-C0A75308973D}" name="1988" dataDxfId="19"/>
-    <tableColumn id="25" xr3:uid="{044B626C-5E23-4555-A328-221BF4E21C20}" name="1989" dataDxfId="18"/>
-    <tableColumn id="26" xr3:uid="{43EB3DDD-D3FE-4B28-A3DE-6790366FFB8D}" name="1990" dataDxfId="17"/>
-    <tableColumn id="27" xr3:uid="{822E4FCE-3992-4705-8574-26332B319DAA}" name="1991" dataDxfId="16"/>
-    <tableColumn id="28" xr3:uid="{BDFA6224-C1C5-4610-A083-EAEBB30A2C5F}" name="1992" dataDxfId="15"/>
-    <tableColumn id="29" xr3:uid="{5ABB6125-84C8-4B86-9E0A-5C5A0BA01051}" name="1993" dataDxfId="14"/>
-    <tableColumn id="30" xr3:uid="{A644A6C5-6B9B-4D2A-A1EB-75FAEC25C4B8}" name="1994" dataDxfId="13"/>
-    <tableColumn id="31" xr3:uid="{9BA8724A-DD6B-4042-AF91-AC53532C458D}" name="1995" dataDxfId="12"/>
-    <tableColumn id="32" xr3:uid="{942DA140-EA74-4B94-AC95-1E4D2E8CC480}" name="1996" dataDxfId="11"/>
-    <tableColumn id="33" xr3:uid="{4BB50490-0EC8-4333-B038-F4D7AE2BCA28}" name="1997" dataDxfId="10"/>
-    <tableColumn id="34" xr3:uid="{E315DD0F-038B-4B17-BB72-F43769C15B69}" name="1998" dataDxfId="9"/>
-    <tableColumn id="35" xr3:uid="{623159D0-5EF1-4750-812A-3D2046E7B4BB}" name="1999" dataDxfId="8"/>
-    <tableColumn id="36" xr3:uid="{5E55975E-2191-483A-95B8-EE0309C01AA0}" name="2000" dataDxfId="7"/>
-    <tableColumn id="37" xr3:uid="{398D967C-6248-4825-B895-97DB35020C18}" name="2001" dataDxfId="6"/>
-    <tableColumn id="38" xr3:uid="{D95F6F78-CBB3-4B93-8DD9-495A352EE8F0}" name="2002" dataDxfId="5"/>
-    <tableColumn id="39" xr3:uid="{F622CA29-2047-400F-A078-E34F687C7B00}" name="2003" dataDxfId="4"/>
-    <tableColumn id="40" xr3:uid="{54E18601-9B98-4BFA-A5C4-D4709F0B4699}" name="2004" dataDxfId="3"/>
-    <tableColumn id="41" xr3:uid="{72CB87D8-E0BE-4FA0-AEDF-229DB919103B}" name="2005" dataDxfId="2"/>
-    <tableColumn id="42" xr3:uid="{B0836882-5F8A-4D73-BD72-D93B7D6BB95A}" name="2006" dataDxfId="0"/>
-    <tableColumn id="43" xr3:uid="{8524E75C-8989-47A9-8723-6EA1B18FB964}" name="2007" dataDxfId="1" dataCellStyle="Millares [0]"/>
-    <tableColumn id="4" xr3:uid="{E921EC63-E974-4DD4-AA80-86C421AB1E86}" name="2008" dataDxfId="29"/>
-    <tableColumn id="5" xr3:uid="{155E37A2-8270-465A-8948-ECA19C004B26}" name="2009" dataDxfId="40"/>
-    <tableColumn id="6" xr3:uid="{9A7F5E6B-B007-4A96-B9AF-71F10C510EC2}" name="2010" dataDxfId="39"/>
-    <tableColumn id="7" xr3:uid="{BD9DE782-02E5-45DF-AD69-52122A58C07F}" name="2011" dataDxfId="38"/>
-    <tableColumn id="8" xr3:uid="{6B324752-D9C5-4ECF-903C-B952AAD0D264}" name="2012" dataDxfId="37"/>
-    <tableColumn id="9" xr3:uid="{A74BE484-2A5E-4858-A420-FB0C8AEE43EC}" name="2013" dataDxfId="36"/>
-    <tableColumn id="10" xr3:uid="{29A94D2B-A0AF-4F70-84BA-E3341AD7DF88}" name="2014" dataDxfId="35"/>
-    <tableColumn id="11" xr3:uid="{FC6D050F-743D-478D-9E68-0BB154F00B97}" name="2015" dataDxfId="34"/>
-    <tableColumn id="12" xr3:uid="{D62925C9-692B-4542-BE78-7C926C52B2F7}" name="2016" dataDxfId="33"/>
-    <tableColumn id="13" xr3:uid="{807FF812-1D9C-4A2D-BDF1-2EC24A01774F}" name="2017" dataDxfId="32"/>
-    <tableColumn id="14" xr3:uid="{CE0537E5-1C09-4FA0-B1A7-32A57E3655D6}" name="2018" dataDxfId="31"/>
-    <tableColumn id="15" xr3:uid="{4E6388DA-6E75-4E1E-BBC2-7059AA12551A}" name="2019" dataDxfId="30"/>
+    <tableColumn id="3" xr3:uid="{C8A9970E-C06D-4717-9FB5-C8093BB33DC0}" name="Región" dataDxfId="41"/>
+    <tableColumn id="16" xr3:uid="{316B0B0C-55EB-43B7-A8C2-807427DE9BCC}" name="1980" dataDxfId="40"/>
+    <tableColumn id="17" xr3:uid="{2A0C395E-5BF3-4E7E-990F-CE08B67BA2F0}" name="1981" dataDxfId="39"/>
+    <tableColumn id="18" xr3:uid="{3BD4C3EB-CD39-4338-9AC0-02A71E406D10}" name="1982" dataDxfId="38"/>
+    <tableColumn id="19" xr3:uid="{84AFBD40-6DEB-41A9-97AC-78005B28B8C9}" name="1983" dataDxfId="37"/>
+    <tableColumn id="20" xr3:uid="{A81310DA-5579-41DC-98A2-A047C100FD22}" name="1984" dataDxfId="36"/>
+    <tableColumn id="21" xr3:uid="{C90369CE-AABA-4F59-8CDB-8CC9A1D740EF}" name="1985" dataDxfId="35"/>
+    <tableColumn id="22" xr3:uid="{3E1971AE-4F59-4AA8-B89A-A55924A07F20}" name="1986" dataDxfId="34"/>
+    <tableColumn id="23" xr3:uid="{24ECFD52-84D3-4960-8F72-D9CEA6D60483}" name="1987" dataDxfId="33"/>
+    <tableColumn id="24" xr3:uid="{1C617C35-6BEA-4684-866C-C0A75308973D}" name="1988" dataDxfId="32"/>
+    <tableColumn id="25" xr3:uid="{044B626C-5E23-4555-A328-221BF4E21C20}" name="1989" dataDxfId="31"/>
+    <tableColumn id="26" xr3:uid="{43EB3DDD-D3FE-4B28-A3DE-6790366FFB8D}" name="1990" dataDxfId="30"/>
+    <tableColumn id="27" xr3:uid="{822E4FCE-3992-4705-8574-26332B319DAA}" name="1991" dataDxfId="29"/>
+    <tableColumn id="28" xr3:uid="{BDFA6224-C1C5-4610-A083-EAEBB30A2C5F}" name="1992" dataDxfId="28"/>
+    <tableColumn id="29" xr3:uid="{5ABB6125-84C8-4B86-9E0A-5C5A0BA01051}" name="1993" dataDxfId="27"/>
+    <tableColumn id="30" xr3:uid="{A644A6C5-6B9B-4D2A-A1EB-75FAEC25C4B8}" name="1994" dataDxfId="26"/>
+    <tableColumn id="31" xr3:uid="{9BA8724A-DD6B-4042-AF91-AC53532C458D}" name="1995" dataDxfId="25"/>
+    <tableColumn id="32" xr3:uid="{942DA140-EA74-4B94-AC95-1E4D2E8CC480}" name="1996" dataDxfId="24"/>
+    <tableColumn id="33" xr3:uid="{4BB50490-0EC8-4333-B038-F4D7AE2BCA28}" name="1997" dataDxfId="23"/>
+    <tableColumn id="34" xr3:uid="{E315DD0F-038B-4B17-BB72-F43769C15B69}" name="1998" dataDxfId="22"/>
+    <tableColumn id="35" xr3:uid="{623159D0-5EF1-4750-812A-3D2046E7B4BB}" name="1999" dataDxfId="21"/>
+    <tableColumn id="36" xr3:uid="{5E55975E-2191-483A-95B8-EE0309C01AA0}" name="2000" dataDxfId="20"/>
+    <tableColumn id="37" xr3:uid="{398D967C-6248-4825-B895-97DB35020C18}" name="2001" dataDxfId="19"/>
+    <tableColumn id="38" xr3:uid="{D95F6F78-CBB3-4B93-8DD9-495A352EE8F0}" name="2002" dataDxfId="18"/>
+    <tableColumn id="39" xr3:uid="{F622CA29-2047-400F-A078-E34F687C7B00}" name="2003" dataDxfId="17"/>
+    <tableColumn id="40" xr3:uid="{54E18601-9B98-4BFA-A5C4-D4709F0B4699}" name="2004" dataDxfId="16"/>
+    <tableColumn id="41" xr3:uid="{72CB87D8-E0BE-4FA0-AEDF-229DB919103B}" name="2005" dataDxfId="15"/>
+    <tableColumn id="42" xr3:uid="{B0836882-5F8A-4D73-BD72-D93B7D6BB95A}" name="2006" dataDxfId="14"/>
+    <tableColumn id="43" xr3:uid="{8524E75C-8989-47A9-8723-6EA1B18FB964}" name="2007" dataDxfId="13" dataCellStyle="Millares [0]"/>
+    <tableColumn id="4" xr3:uid="{E921EC63-E974-4DD4-AA80-86C421AB1E86}" name="2008" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{155E37A2-8270-465A-8948-ECA19C004B26}" name="2009" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{9A7F5E6B-B007-4A96-B9AF-71F10C510EC2}" name="2010" dataDxfId="10"/>
+    <tableColumn id="7" xr3:uid="{BD9DE782-02E5-45DF-AD69-52122A58C07F}" name="2011" dataDxfId="9"/>
+    <tableColumn id="8" xr3:uid="{6B324752-D9C5-4ECF-903C-B952AAD0D264}" name="2012" dataDxfId="8"/>
+    <tableColumn id="9" xr3:uid="{A74BE484-2A5E-4858-A420-FB0C8AEE43EC}" name="2013" dataDxfId="7"/>
+    <tableColumn id="10" xr3:uid="{29A94D2B-A0AF-4F70-84BA-E3341AD7DF88}" name="2014" dataDxfId="6"/>
+    <tableColumn id="11" xr3:uid="{FC6D050F-743D-478D-9E68-0BB154F00B97}" name="2015" dataDxfId="5"/>
+    <tableColumn id="12" xr3:uid="{D62925C9-692B-4542-BE78-7C926C52B2F7}" name="2016" dataDxfId="4"/>
+    <tableColumn id="13" xr3:uid="{807FF812-1D9C-4A2D-BDF1-2EC24A01774F}" name="2017" dataDxfId="3"/>
+    <tableColumn id="14" xr3:uid="{CE0537E5-1C09-4FA0-B1A7-32A57E3655D6}" name="2018" dataDxfId="2"/>
+    <tableColumn id="15" xr3:uid="{4E6388DA-6E75-4E1E-BBC2-7059AA12551A}" name="2019" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1162,7 +1162,7 @@
     <tableColumn id="8" xr3:uid="{CD3D88FE-1BA5-4FB2-B586-CC874056B8A7}" name="ISO país"/>
     <tableColumn id="9" xr3:uid="{B4985A63-B23B-45C8-A8FD-86DB55E36416}" name="Nivel administrativo"/>
     <tableColumn id="10" xr3:uid="{1219C094-CE63-438C-B146-F609E713ABFD}" name="Descripción larga"/>
-    <tableColumn id="11" xr3:uid="{A4F7C371-6B1B-4A9E-BF5D-C0E69811183E}" name="Fecha" dataDxfId="41"/>
+    <tableColumn id="11" xr3:uid="{A4F7C371-6B1B-4A9E-BF5D-C0E69811183E}" name="Fecha" dataDxfId="0"/>
     <tableColumn id="12" xr3:uid="{359454CB-1EEC-4FFA-93E7-C2A9713222FB}" name="Unidad"/>
     <tableColumn id="13" xr3:uid="{67C2F10B-FF82-46E1-A3F8-F194C5F76E25}" name="Responsable"/>
   </tableColumns>
@@ -1470,7 +1470,7 @@
   <dimension ref="A1:AQ13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AM6" sqref="AM6"/>
+      <selection activeCell="AJ17" sqref="AJ17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3199,7 +3199,7 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Silvicultura/18.2.xlsx
+++ b/Silvicultura/18.2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo Arancibia\DATA INTELLIGENCE Dropbox\Diseño DATA's\Tablas Madre\Silvicultura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{481D5A19-736A-4AD8-89B6-EE6BF3C286F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{363AEDA1-AFA9-477F-A203-72193851876A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{304F5C37-1D98-4FE3-B97A-F520E9FED410}"/>
   </bookViews>
@@ -24,6 +24,13 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
@@ -37,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="76">
   <si>
     <t>Id_auxiliar</t>
   </si>
@@ -261,55 +268,10 @@
     <t>2007</t>
   </si>
   <si>
-    <t>1,0</t>
-  </si>
-  <si>
-    <t>0,4</t>
-  </si>
-  <si>
-    <t>2,2</t>
-  </si>
-  <si>
-    <t>0,1</t>
-  </si>
-  <si>
-    <t>0,6</t>
-  </si>
-  <si>
-    <t>0,2</t>
-  </si>
-  <si>
-    <t>0,3</t>
-  </si>
-  <si>
     <t>Detalla la producción, en miles de m3, de madera aserrada, por región y por año. El período de los datos va desde el 1980 al 2019.</t>
   </si>
   <si>
     <t>Coquimbo</t>
-  </si>
-  <si>
-    <t>1,2</t>
-  </si>
-  <si>
-    <t>1,6</t>
-  </si>
-  <si>
-    <t>2,1</t>
-  </si>
-  <si>
-    <t>6,4</t>
-  </si>
-  <si>
-    <t>3,8</t>
-  </si>
-  <si>
-    <t>1,1</t>
-  </si>
-  <si>
-    <t>0,5</t>
-  </si>
-  <si>
-    <t>0,7</t>
   </si>
 </sst>
 </file>
@@ -1467,10 +1429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D805B50D-9AEA-421A-A95B-8349BDBD9DF1}">
-  <dimension ref="A1:AQ13"/>
+  <dimension ref="A1:AQ16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AJ17" sqref="AJ17"/>
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="AB18" sqref="AB18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1621,7 +1583,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="D2" s="3">
         <v>0</v>
@@ -1635,71 +1597,71 @@
       <c r="G2" s="3">
         <v>0</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>83</v>
+      <c r="H2" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="I2" s="3">
+        <v>1.2</v>
       </c>
       <c r="J2" s="3">
         <v>0</v>
       </c>
-      <c r="K2" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="W2" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="X2" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y2" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="Z2" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="AA2" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="AB2" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="AC2" s="3" t="s">
-        <v>77</v>
+      <c r="K2" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="L2" s="3">
+        <v>1</v>
+      </c>
+      <c r="M2" s="3">
+        <v>1.6</v>
+      </c>
+      <c r="N2" s="3">
+        <v>2.1</v>
+      </c>
+      <c r="O2" s="3">
+        <v>6.4</v>
+      </c>
+      <c r="P2" s="3">
+        <v>3.8</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="R2" s="3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="S2" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="T2" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="U2" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="V2" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="W2" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="X2" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="Y2" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="Z2" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="AA2" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="AB2" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="AC2" s="3">
+        <v>0.1</v>
       </c>
       <c r="AD2" s="3">
         <v>0</v>
@@ -3184,6 +3146,28 @@
       <c r="AQ13" s="4">
         <v>1132.8</v>
       </c>
+    </row>
+    <row r="16" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="X16" s="4"/>
+      <c r="Y16" s="4"/>
+      <c r="Z16" s="4"/>
+      <c r="AA16" s="4"/>
+      <c r="AB16" s="4"/>
+      <c r="AC16" s="4"/>
+      <c r="AD16" s="4"/>
+      <c r="AE16" s="4"/>
+      <c r="AF16" s="4"/>
+      <c r="AG16" s="4"/>
+      <c r="AH16" s="4"/>
+      <c r="AI16" s="4"/>
+      <c r="AJ16" s="4"/>
+      <c r="AK16" s="4"/>
+      <c r="AL16" s="4"/>
+      <c r="AM16" s="4"/>
+      <c r="AN16" s="4"/>
+      <c r="AO16" s="4"/>
+      <c r="AP16" s="4"/>
+      <c r="AQ16" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3199,7 +3183,7 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3282,7 +3266,7 @@
         <v>2</v>
       </c>
       <c r="J2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="K2" s="1">
         <v>44321</v>
